--- a/excels/config/game/rune/rune_attr_config.xlsx
+++ b/excels/config/game/rune/rune_attr_config.xlsx
@@ -28,16 +28,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
   <si>
     <t>符文属性索引</t>
   </si>
   <si>
     <t>属性中文1
 随机概率（可重复，和符文品质无关）
-90%概率出现1条属性
+89%概率出现1条属性
 9%概率出现2条属性
-1%概率出现3条属性</t>
+2%概率出现3条属性</t>
+  </si>
+  <si>
+    <t>最小值</t>
+  </si>
+  <si>
+    <t>最大值</t>
   </si>
   <si>
     <t>属性值1</t>
@@ -46,6 +52,21 @@
     <t>羁绊属性id</t>
   </si>
   <si>
+    <t>小数位数</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>蓝-紫</t>
+  </si>
+  <si>
+    <t>紫-金</t>
+  </si>
+  <si>
+    <t>金以上</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -55,10 +76,88 @@
     <t>[}]</t>
   </si>
   <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>r_2</t>
+  </si>
+  <si>
+    <t>r_3</t>
+  </si>
+  <si>
+    <t>r_4</t>
+  </si>
+  <si>
     <t>攻击力(基础)</t>
   </si>
   <si>
-    <t>10-15</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>生命值(基础)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>攻击速度(基础)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>%移动速度(基础百分比)</t>
+  </si>
+  <si>
+    <t>生命恢复(基础单位秒)</t>
+  </si>
+  <si>
+    <t>蓝量回复(基础单位秒)</t>
+  </si>
+  <si>
+    <t>技能急速(基础)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>%闪避(基础)</t>
+  </si>
+  <si>
+    <t>%经验值获取(基础)</t>
+  </si>
+  <si>
+    <t>%灵魂获取(基础)</t>
+  </si>
+  <si>
+    <t>%暴击概率(基础)</t>
+  </si>
+  <si>
+    <t>%暴击伤害(基础)</t>
+  </si>
+  <si>
+    <t>%伤害加成(基础)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>%元素伤害(基础)</t>
+  </si>
+  <si>
+    <t>%元素穿透(基础)</t>
+  </si>
+  <si>
+    <t>%伤害减免(基础)</t>
+  </si>
+  <si>
+    <t>防御力(基础)</t>
   </si>
   <si>
     <t>激活索引</t>
@@ -88,21 +187,12 @@
     <t>BonusPercent</t>
   </si>
   <si>
-    <t>防御力(基础)</t>
-  </si>
-  <si>
     <t>PhyicalArmor</t>
   </si>
   <si>
-    <t>生命值(基础)</t>
-  </si>
-  <si>
     <t>MaxHealth</t>
   </si>
   <si>
-    <t>攻击速度(基础)</t>
-  </si>
-  <si>
     <t>AttackSpeed</t>
   </si>
   <si>
@@ -112,79 +202,40 @@
     <t>BasePercent</t>
   </si>
   <si>
-    <t>%移动速度(基础百分比)</t>
-  </si>
-  <si>
     <t>MoveSpeed</t>
   </si>
   <si>
-    <t>生命恢复(基础单位秒)</t>
-  </si>
-  <si>
     <t>HealthRegen</t>
   </si>
   <si>
-    <t>蓝量回复(基础单位秒)</t>
-  </si>
-  <si>
     <t>ManaRegen</t>
   </si>
   <si>
-    <t>技能急速(基础)</t>
-  </si>
-  <si>
     <t>AbilityHaste</t>
   </si>
   <si>
-    <t>%闪避(基础)</t>
-  </si>
-  <si>
     <t>EvasionProb</t>
   </si>
   <si>
-    <t>%经验值获取(基础)</t>
-  </si>
-  <si>
     <t>SingleExpeIncrease</t>
   </si>
   <si>
-    <t>%灵魂获取(基础)</t>
-  </si>
-  <si>
     <t>SoulGetRate</t>
   </si>
   <si>
-    <t>%暴击概率(基础)</t>
-  </si>
-  <si>
     <t>CriticalChance</t>
   </si>
   <si>
-    <t>%暴击伤害(基础)</t>
-  </si>
-  <si>
     <t>CriticalDamage</t>
   </si>
   <si>
-    <t>%伤害加成(基础)</t>
-  </si>
-  <si>
     <t>DamageBonusMul</t>
   </si>
   <si>
-    <t>%元素伤害(基础)</t>
-  </si>
-  <si>
     <t>AllElementDamageBonus</t>
   </si>
   <si>
-    <t>%元素穿透(基础)</t>
-  </si>
-  <si>
     <t>AllElementPent</t>
-  </si>
-  <si>
-    <t>%伤害减免(基础)</t>
   </si>
   <si>
     <t>DmgReductionPct</t>
@@ -799,19 +850,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -929,6 +967,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1176,7 +1227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1210,6 +1261,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1225,74 +1282,80 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2254,16 +2317,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B38BFC99-E2A7-4DF1-984D-1484E6E00A37}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{4B992DFB-09D9-4ACB-A7C1-B40DBE36FBD1}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EC622C18-6323-4ACB-8A5C-CA2038E3C6CA}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{65023F4B-75A9-4678-9201-E132D5687A0F}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{6A23B32C-E490-4548-893C-62CDD1BB759A}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0FBC1F89-EB37-4386-B8EE-A4B8C5733E52}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -2272,7 +2335,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C1B38293-991D-41C5-9BBE-7615592816EF}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{D0A99947-AC4A-4897-97CA-D3942834A3AA}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2284,7 +2347,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="13"/>
       <tableStyleElement type="lastTotalCell" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{263D7607-C432-4B9E-AC17-830778353DAF}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{D870391F-75B5-4ACA-94BC-0BA32455E468}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -2600,879 +2663,1131 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J8" sqref="J8"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.8416666666667" style="8" customWidth="1"/>
     <col min="2" max="2" width="26.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.175" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.8416666666667" style="8" customWidth="1"/>
-    <col min="5" max="5" width="30.175" style="8" customWidth="1"/>
+    <col min="3" max="4" width="14.175" style="10" customWidth="1"/>
+    <col min="5" max="5" width="14.175" style="11" customWidth="1"/>
     <col min="6" max="6" width="16.8416666666667" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="8"/>
+    <col min="7" max="7" width="30.175" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.8416666666667" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="8" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="12" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="8" customWidth="1"/>
+    <col min="12" max="12" width="9.10833333333333" style="12" customWidth="1"/>
+    <col min="13" max="13" width="17.05" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.525" style="12" customWidth="1"/>
+    <col min="15" max="15" width="14.4083333333333" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.375" style="12"/>
+    <col min="17" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="108.75" spans="1:7">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="108.75" spans="1:16">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="16"/>
-    </row>
-    <row r="2" ht="63.5" customHeight="1" spans="1:7">
-      <c r="A2" s="17" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="63.5" customHeight="1" spans="1:15">
+      <c r="A2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="21">
+        <v>1</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="41"/>
+      <c r="M2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="47" customHeight="1" spans="1:16">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="24" t="str">
+        <f>C3&amp;"-"&amp;D3</f>
+        <v>1-5</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="26" t="str">
+        <f>IF(ISTEXT(B3),VLOOKUP(B3,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B3,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>AttackDamage {
+"Base" "1-5"
+ }</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="40">
+        <v>2</v>
+      </c>
+      <c r="J3" s="41">
+        <v>0</v>
+      </c>
+      <c r="K3" s="42">
+        <f>D3*J3+ROUND(D3*J3,I3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="M3" s="8">
+        <f>ROUND(D3*L3,I3)</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O3" s="8">
+        <f>ROUND(D3*N3,I3)</f>
+        <v>3.5</v>
+      </c>
+      <c r="P3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:16">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="24" t="str">
+        <f t="shared" ref="E4:E18" si="0">C4&amp;"-"&amp;D4</f>
+        <v>10-50</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="31" t="str">
+        <f>IF(ISTEXT(B4),VLOOKUP(B4,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B4,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E4&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>MaxHealth {
+"Base" "10-50"
+ }</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="40">
+        <v>2</v>
+      </c>
+      <c r="J4" s="41">
+        <v>0</v>
+      </c>
+      <c r="K4" s="42">
+        <f t="shared" ref="K4:K19" si="1">D4*J4+ROUND(D4*J4,I4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" ref="M4:M19" si="2">ROUND(D4*L4,I4)</f>
+        <v>20</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" ref="O4:O19" si="3">ROUND(D4*N4,I4)</f>
+        <v>35</v>
+      </c>
+      <c r="P4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="47" customHeight="1" spans="1:16">
+      <c r="A5" s="28">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>5-25</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="31" t="str">
+        <f>IF(ISTEXT(B5),VLOOKUP(B5,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B5,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E5&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>AttackSpeed {
+"Base" "5-25"
+ }</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="40">
+        <v>2</v>
+      </c>
+      <c r="J5" s="41">
+        <v>0</v>
+      </c>
+      <c r="K5" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+      <c r="P5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:16">
+      <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20" t="s">
+      <c r="B6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="31" t="str">
+        <f>IF(ISTEXT(B6),VLOOKUP(B6,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B6,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E6&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>MoveSpeed {
+"BasePercent" "1-5"
+ }</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="40">
+        <v>2</v>
+      </c>
+      <c r="J6" s="41">
+        <v>0</v>
+      </c>
+      <c r="K6" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="P6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="1" ht="63.5" customHeight="1" spans="1:16">
+      <c r="A7" s="28">
         <v>5</v>
       </c>
-      <c r="E2" s="20">
+      <c r="B7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="31" t="str">
+        <f>IF(ISTEXT(B7),VLOOKUP(B7,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B7,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E7&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>HealthRegen {
+"Base" "1-5"
+ }</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="40">
+        <v>2</v>
+      </c>
+      <c r="J7" s="41">
+        <v>0</v>
+      </c>
+      <c r="K7" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="P7" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="21" t="s">
+    </row>
+    <row r="8" s="8" customFormat="1" ht="47" customHeight="1" spans="1:16">
+      <c r="A8" s="28">
         <v>6</v>
       </c>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" s="8" customFormat="1" ht="47" customHeight="1" spans="1:7">
-      <c r="A3" s="22">
+      <c r="B8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="31" t="str">
+        <f>IF(ISTEXT(B8),VLOOKUP(B8,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B8,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E8&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>ManaRegen {
+"Base" "1-5"
+ }</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="40">
+        <v>2</v>
+      </c>
+      <c r="J8" s="41">
+        <v>0</v>
+      </c>
+      <c r="K8" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="P8" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+    </row>
+    <row r="9" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:16">
+      <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="B9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>5-15</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="31" t="str">
+        <f>IF(ISTEXT(B9),VLOOKUP(B9,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B9,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E9&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>AbilityHaste {
+"Base" "5-15"
+ }</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41">
+        <v>0</v>
+      </c>
+      <c r="K9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:16">
+      <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="25" t="str">
-        <f>IF(ISTEXT(B3),VLOOKUP(B3,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B3,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>AttackDamage {
-"Base" "10-15"
+      <c r="B10" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="31" t="str">
+        <f>IF(ISTEXT(B10),VLOOKUP(B10,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B10,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E10&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>EvasionProb {
+"Base" "1-5"
  }</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A4" s="27">
+      <c r="H10" s="32"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41">
+        <v>0</v>
+      </c>
+      <c r="K10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="1" ht="47" customHeight="1" spans="1:16">
+      <c r="A11" s="28">
+        <v>9</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="31" t="str">
+        <f>IF(ISTEXT(B11),VLOOKUP(B11,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B11,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E11&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>SingleExpeIncrease {
+"Base" "1-5"
+ }</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41">
+        <v>0</v>
+      </c>
+      <c r="K11" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31" t="str">
-        <f>IF(ISTEXT(B4),VLOOKUP(B4,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B4,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C4&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="N11" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="9" customFormat="1" ht="47" customHeight="1" spans="1:16">
+      <c r="A12" s="28">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>10-50</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="31" t="str">
+        <f>IF(ISTEXT(B12),VLOOKUP(B12,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B12,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E12&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>SoulGetRate {
+"Base" "10-50"
+ }</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="J12" s="41">
+        <v>0</v>
+      </c>
+      <c r="K12" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O12" s="8">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="P12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="47" customHeight="1" spans="1:16">
+      <c r="A13" s="28">
+        <v>11</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="31" t="str">
+        <f>IF(ISTEXT(B13),VLOOKUP(B13,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B13,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E13&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>CriticalChance {
+"Base" "1-5"
+ }</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41">
+        <v>0</v>
+      </c>
+      <c r="K13" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="30.5" customHeight="1" spans="1:16">
+      <c r="A14" s="28">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>5-25</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="31" t="str">
+        <f>IF(ISTEXT(B14),VLOOKUP(B14,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B14,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E14&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>CriticalDamage {
+"Base" "5-25"
+ }</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41">
+        <v>0</v>
+      </c>
+      <c r="K14" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="P14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="47" customHeight="1" spans="1:16">
+      <c r="A15" s="28">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2-10</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="31" t="str">
+        <f>IF(ISTEXT(B15),VLOOKUP(B15,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B15,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E15&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>DamageBonusMul {
+"Base" "2-10"
+ }</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41">
+        <v>0</v>
+      </c>
+      <c r="K15" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="P15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="47" customHeight="1" spans="1:16">
+      <c r="A16" s="28">
+        <v>14</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="31" t="str">
+        <f>IF(ISTEXT(B16),VLOOKUP(B16,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B16,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E16&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>AllElementDamageBonus {
+"Base" "1-5"
+ }</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41">
+        <v>0</v>
+      </c>
+      <c r="K16" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="47" customHeight="1" spans="1:16">
+      <c r="A17" s="28">
+        <v>15</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="31" t="str">
+        <f>IF(ISTEXT(B17),VLOOKUP(B17,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B17,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E17&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>AllElementPent {
+"Base" "1-5"
+ }</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41">
+        <v>0</v>
+      </c>
+      <c r="K17" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="30.5" customHeight="1" spans="1:16">
+      <c r="A18" s="28">
+        <v>16</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2-10</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="31" t="str">
+        <f>IF(ISTEXT(B18),VLOOKUP(B18,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B18,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E18&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>DmgReductionPct {
+"Base" "2-10"
+ }</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41">
+        <v>0</v>
+      </c>
+      <c r="K18" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="P18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="30.5" customHeight="1" spans="1:16">
+      <c r="A19" s="28">
+        <v>17</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="24" t="str">
+        <f t="shared" ref="E19:E28" si="4">C19&amp;"-"&amp;D19</f>
+        <v>1-5</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="31" t="str">
+        <f>IF(ISTEXT(B19),VLOOKUP(B19,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B19,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E19&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+        <v>PhyicalArmor {
+"Base" "1-5"
+ }</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="J19" s="41">
+        <v>0</v>
+      </c>
+      <c r="K19" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="31" t="str">
+        <f>IF(ISTEXT(B20),VLOOKUP(B20,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B20,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E20&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" s="8" customFormat="1" ht="47" customHeight="1" spans="1:7">
-      <c r="A5" s="27">
-        <v>3</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31" t="str">
-        <f>IF(ISTEXT(B5),VLOOKUP(B5,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B5,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C5&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="31" t="str">
+        <f>IF(ISTEXT(B21),VLOOKUP(B21,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B21,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E21&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A6" s="27">
-        <v>4</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31" t="str">
-        <f>IF(ISTEXT(B6),VLOOKUP(B6,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B6,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C6&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="31" t="str">
+        <f>IF(ISTEXT(B22),VLOOKUP(B22,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B22,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E22&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" s="8" customFormat="1" ht="63.5" customHeight="1" spans="1:7">
-      <c r="A7" s="27">
-        <v>5</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31" t="str">
-        <f>IF(ISTEXT(B7),VLOOKUP(B7,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B7,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C7&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="31" t="str">
+        <f>IF(ISTEXT(B23),VLOOKUP(B23,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B23,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E23&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" s="8" customFormat="1" ht="47" customHeight="1" spans="1:7">
-      <c r="A8" s="27">
-        <v>6</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31" t="str">
-        <f>IF(ISTEXT(B8),VLOOKUP(B8,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B8,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C8&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="31" t="str">
+        <f>IF(ISTEXT(B24),VLOOKUP(B24,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B24,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E24&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A9" s="27">
-        <v>7</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31" t="str">
-        <f>IF(ISTEXT(B9),VLOOKUP(B9,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B9,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C9&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="31" t="str">
+        <f>IF(ISTEXT(B25),VLOOKUP(B25,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B25,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E25&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A10" s="27">
-        <v>8</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31" t="str">
-        <f>IF(ISTEXT(B10),VLOOKUP(B10,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B10,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C10&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="31" t="str">
+        <f>IF(ISTEXT(B26),VLOOKUP(B26,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B26,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E26&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" s="8" customFormat="1" ht="47" customHeight="1" spans="1:7">
-      <c r="A11" s="27">
-        <v>9</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31" t="str">
-        <f>IF(ISTEXT(B11),VLOOKUP(B11,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B11,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C11&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="31" t="str">
+        <f>IF(ISTEXT(B27),VLOOKUP(B27,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B27,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E27&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" s="9" customFormat="1" ht="47" customHeight="1" spans="1:6">
-      <c r="A12" s="27">
-        <v>10</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31" t="str">
-        <f>IF(ISTEXT(B12),VLOOKUP(B12,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B12,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C12&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39" t="str">
+        <f>IF(ISTEXT(B28),VLOOKUP(B28,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B28,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E28&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" ht="47" customHeight="1" spans="1:7">
-      <c r="A13" s="27">
-        <v>11</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31" t="str">
-        <f>IF(ISTEXT(B13),VLOOKUP(B13,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B13,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C13&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A14" s="27">
-        <v>12</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31" t="str">
-        <f>IF(ISTEXT(B14),VLOOKUP(B14,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B14,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C14&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" ht="47" customHeight="1" spans="1:7">
-      <c r="A15" s="27">
-        <v>13</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31" t="str">
-        <f>IF(ISTEXT(B15),VLOOKUP(B15,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B15,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C15&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" ht="47" customHeight="1" spans="1:7">
-      <c r="A16" s="27">
-        <v>14</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31" t="str">
-        <f>IF(ISTEXT(B16),VLOOKUP(B16,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B16,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C16&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" ht="47" customHeight="1" spans="1:7">
-      <c r="A17" s="27">
-        <v>15</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31" t="str">
-        <f>IF(ISTEXT(B17),VLOOKUP(B17,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B17,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C17&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A18" s="27">
-        <v>16</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31" t="str">
-        <f>IF(ISTEXT(B18),VLOOKUP(B18,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B18,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C18&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" ht="47" customHeight="1" spans="1:7">
-      <c r="A19" s="27">
-        <v>17</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31" t="str">
-        <f>IF(ISTEXT(B19),VLOOKUP(B19,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B19,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C19&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" ht="63.5" customHeight="1" spans="1:7">
-      <c r="A20" s="27">
-        <v>18</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31" t="str">
-        <f>IF(ISTEXT(B20),VLOOKUP(B20,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B20,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C20&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" ht="47" customHeight="1" spans="1:7">
-      <c r="A21" s="27">
-        <v>19</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31" t="str">
-        <f>IF(ISTEXT(B21),VLOOKUP(B21,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B21,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C21&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" ht="47" customHeight="1" spans="1:7">
-      <c r="A22" s="27">
-        <v>20</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31" t="str">
-        <f>IF(ISTEXT(B22),VLOOKUP(B22,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B22,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C22&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A23" s="27">
-        <v>21</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31" t="str">
-        <f>IF(ISTEXT(B23),VLOOKUP(B23,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B23,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C23&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" ht="47" customHeight="1" spans="1:7">
-      <c r="A24" s="27">
-        <v>22</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31" t="str">
-        <f>IF(ISTEXT(B24),VLOOKUP(B24,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B24,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C24&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A25" s="27">
-        <v>23</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31" t="str">
-        <f>IF(ISTEXT(B25),VLOOKUP(B25,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B25,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C25&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" ht="47" customHeight="1" spans="1:7">
-      <c r="A26" s="27">
-        <v>24</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31" t="str">
-        <f>IF(ISTEXT(B26),VLOOKUP(B26,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B26,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C26&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" ht="47" customHeight="1" spans="1:6">
-      <c r="A27" s="27">
-        <v>25</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31" t="str">
-        <f>IF(ISTEXT(B27),VLOOKUP(B27,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B27,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C27&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F27" s="32"/>
-    </row>
-    <row r="28" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A28" s="27">
-        <v>26</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31" t="str">
-        <f>IF(ISTEXT(B28),VLOOKUP(B28,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B28,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C28&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F28" s="32"/>
-    </row>
-    <row r="29" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A29" s="27">
-        <v>27</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31" t="str">
-        <f>IF(ISTEXT(B29),VLOOKUP(B29,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B29,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C29&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F29" s="32"/>
-    </row>
-    <row r="30" ht="47" customHeight="1" spans="1:6">
-      <c r="A30" s="27">
-        <v>28</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31" t="str">
-        <f>IF(ISTEXT(B30),VLOOKUP(B30,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B30,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C30&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F30" s="32"/>
-    </row>
-    <row r="31" ht="47" customHeight="1" spans="1:6">
-      <c r="A31" s="27">
-        <v>29</v>
-      </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31" t="str">
-        <f>IF(ISTEXT(B31),VLOOKUP(B31,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B31,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C31&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F31" s="32"/>
-    </row>
-    <row r="32" ht="47" customHeight="1" spans="1:6">
-      <c r="A32" s="27">
-        <v>30</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31" t="str">
-        <f>IF(ISTEXT(B32),VLOOKUP(B32,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B32,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C32&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F32" s="32"/>
-    </row>
-    <row r="33" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A33" s="27">
-        <v>31</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31" t="str">
-        <f>IF(ISTEXT(B33),VLOOKUP(B33,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B33,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C33&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F33" s="32"/>
-    </row>
-    <row r="34" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A34" s="27">
-        <v>32</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31" t="str">
-        <f>IF(ISTEXT(B34),VLOOKUP(B34,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B34,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C34&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F34" s="32"/>
-    </row>
-    <row r="35" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A35" s="27">
-        <v>33</v>
-      </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31" t="str">
-        <f>IF(ISTEXT(B35),VLOOKUP(B35,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B35,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C35&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F35" s="32"/>
-    </row>
-    <row r="36" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A36" s="27">
-        <v>34</v>
-      </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31" t="str">
-        <f>IF(ISTEXT(B36),VLOOKUP(B36,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B36,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C36&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F36" s="32"/>
-    </row>
-    <row r="37" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A37" s="27">
-        <v>35</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31" t="str">
-        <f>IF(ISTEXT(B37),VLOOKUP(B37,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B37,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C37&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F37" s="32"/>
-    </row>
-    <row r="38" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A38" s="27">
-        <v>36</v>
-      </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31" t="str">
-        <f>IF(ISTEXT(B38),VLOOKUP(B38,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B38,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C38&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F38" s="32"/>
-    </row>
-    <row r="39" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A39" s="27">
-        <v>37</v>
-      </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31" t="str">
-        <f>IF(ISTEXT(B39),VLOOKUP(B39,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B39,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C39&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F39" s="32"/>
-    </row>
-    <row r="40" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A40" s="27">
-        <v>38</v>
-      </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31" t="str">
-        <f>IF(ISTEXT(B40),VLOOKUP(B40,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B40,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C40&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F40" s="32"/>
-    </row>
-    <row r="41" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A41" s="27">
-        <v>39</v>
-      </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31" t="str">
-        <f>IF(ISTEXT(B41),VLOOKUP(B41,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B41,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C41&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F41" s="32"/>
-    </row>
-    <row r="42" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A42" s="27">
-        <v>40</v>
-      </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31" t="str">
-        <f>IF(ISTEXT(B42),VLOOKUP(B42,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B42,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C42&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F42" s="32"/>
-    </row>
-    <row r="43" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A43" s="27">
-        <v>41</v>
-      </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31" t="str">
-        <f>IF(ISTEXT(B43),VLOOKUP(B43,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B43,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C43&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F43" s="32"/>
-    </row>
-    <row r="44" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A44" s="27">
-        <v>42</v>
-      </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="31" t="str">
-        <f>IF(ISTEXT(B44),VLOOKUP(B44,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B44,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C44&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F44" s="32"/>
-    </row>
-    <row r="45" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A45" s="27">
-        <v>43</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31" t="str">
-        <f>IF(ISTEXT(B45),VLOOKUP(B45,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B45,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C45&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F45" s="32"/>
-    </row>
-    <row r="46" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A46" s="27">
-        <v>44</v>
-      </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31" t="str">
-        <f>IF(ISTEXT(B46),VLOOKUP(B46,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B46,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C46&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F46" s="32"/>
-    </row>
-    <row r="47" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A47" s="27">
-        <v>45</v>
-      </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31" t="str">
-        <f>IF(ISTEXT(B47),VLOOKUP(B47,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B47,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C47&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F47" s="32"/>
-    </row>
-    <row r="48" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A48" s="27">
-        <v>46</v>
-      </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31" t="str">
-        <f>IF(ISTEXT(B48),VLOOKUP(B48,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B48,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C48&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F48" s="32"/>
-    </row>
-    <row r="49" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A49" s="27">
-        <v>47</v>
-      </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31" t="str">
-        <f>IF(ISTEXT(B49),VLOOKUP(B49,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B49,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C49&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F49" s="32"/>
-    </row>
-    <row r="50" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A50" s="27">
-        <v>48</v>
-      </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31" t="str">
-        <f>IF(ISTEXT(B50),VLOOKUP(B50,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B50,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C50&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F50" s="32"/>
-    </row>
-    <row r="51" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A51" s="27">
-        <v>49</v>
-      </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="31" t="str">
-        <f>IF(ISTEXT(B51),VLOOKUP(B51,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B51,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C51&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F51" s="32"/>
-    </row>
-    <row r="52" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A52" s="27">
-        <v>50</v>
-      </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31" t="str">
-        <f>IF(ISTEXT(B52),VLOOKUP(B52,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B52,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C52&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F52" s="32"/>
-    </row>
-    <row r="53" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A53" s="27">
-        <v>51</v>
-      </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="31" t="str">
-        <f>IF(ISTEXT(B53),VLOOKUP(B53,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B53,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C53&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F53" s="32"/>
-    </row>
-    <row r="54" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A54" s="27">
-        <v>52</v>
-      </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="31" t="str">
-        <f>IF(ISTEXT(B54),VLOOKUP(B54,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B54,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C54&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F54" s="32"/>
-    </row>
-    <row r="55" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="31" t="str">
-        <f>IF(ISTEXT(B55),VLOOKUP(B55,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B55,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C55&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F55" s="32"/>
-    </row>
-    <row r="56" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="31" t="str">
-        <f>IF(ISTEXT(B56),VLOOKUP(B56,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B56,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C56&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F56" s="32"/>
-    </row>
-    <row r="57" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A57" s="27"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="31" t="str">
-        <f>IF(ISTEXT(B57),VLOOKUP(B57,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B57,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C57&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F57" s="32"/>
-    </row>
-    <row r="58" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A58" s="27"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="31" t="str">
-        <f>IF(ISTEXT(B58),VLOOKUP(B58,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B58,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C58&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F58" s="32"/>
-    </row>
-    <row r="59" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="31" t="str">
-        <f>IF(ISTEXT(B59),VLOOKUP(B59,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B59,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C59&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F59" s="32"/>
-    </row>
-    <row r="60" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A60" s="27"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="31" t="str">
-        <f>IF(ISTEXT(B60),VLOOKUP(B60,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B60,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C60&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F60" s="32"/>
-    </row>
-    <row r="61" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="31" t="str">
-        <f>IF(ISTEXT(B61),VLOOKUP(B61,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B61,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C61&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F61" s="32"/>
-    </row>
-    <row r="62" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="31" t="str">
-        <f>IF(ISTEXT(B62),VLOOKUP(B62,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B62,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C62&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F62" s="32"/>
-    </row>
-    <row r="63" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="31" t="str">
-        <f>IF(ISTEXT(B63),VLOOKUP(B63,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B63,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C63&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F63" s="32"/>
-    </row>
-    <row r="64" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A64" s="34"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="38" t="str">
-        <f>IF(ISTEXT(B64),VLOOKUP(B64,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B64,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;C64&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="F64" s="32"/>
+      <c r="H28" s="32"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1 B2 C2:C1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 C1 D1 E1 B2 E2 C2:C18 C19:C1048576 D2:D18 D19:D1048576 E3:E17 E18:E28 E29:E1048576 F4:F18"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B18 B19:B1048576">
       <formula1>rune_attr_config_atf!$B:$B</formula1>
     </dataValidation>
   </dataValidations>
@@ -3500,21 +3815,21 @@
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3525,13 +3840,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="51.5" customHeight="1" spans="1:4">
@@ -3539,13 +3854,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:4">
@@ -3553,13 +3868,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" ht="51.5" customHeight="1" spans="1:4">
@@ -3567,13 +3882,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" ht="51.5" customHeight="1" spans="1:4">
@@ -3581,13 +3896,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="51.5" customHeight="1" spans="1:4">
@@ -3595,13 +3910,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" ht="51.5" customHeight="1" spans="1:4">
@@ -3612,10 +3927,10 @@
         <v>26</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" ht="51.5" customHeight="1" spans="1:4">
@@ -3623,13 +3938,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:4">
@@ -3637,13 +3952,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:4">
@@ -3651,13 +3966,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" ht="51.5" customHeight="1" spans="1:4">
@@ -3665,13 +3980,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" ht="51.5" customHeight="1" spans="1:4">
@@ -3679,13 +3994,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" ht="51.5" customHeight="1" spans="1:4">
@@ -3693,13 +4008,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="51.5" customHeight="1" spans="1:4">
@@ -3707,13 +4022,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="51.5" customHeight="1" spans="1:4">
@@ -3721,13 +4036,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:4">
@@ -3735,13 +4050,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:4">
@@ -3749,13 +4064,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" ht="51.5" customHeight="1" spans="1:4">
@@ -3763,13 +4078,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="21" ht="51.5" customHeight="1" spans="1:4">
@@ -3777,13 +4092,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="51.5" customHeight="1" spans="1:4">
@@ -3791,13 +4106,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -3805,13 +4120,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -3819,13 +4134,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -3833,13 +4148,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -3847,13 +4162,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" ht="51.5" customHeight="1" spans="1:4">
@@ -3861,13 +4176,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" ht="51.5" customHeight="1" spans="1:4">
@@ -3875,13 +4190,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" ht="51.5" customHeight="1" spans="1:4">
@@ -3889,13 +4204,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:4">
@@ -3903,13 +4218,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/rune/rune_attr_config.xlsx
+++ b/excels/config/game/rune/rune_attr_config.xlsx
@@ -55,16 +55,16 @@
     <t>小数位数</t>
   </si>
   <si>
-    <t>蓝</t>
-  </si>
-  <si>
-    <t>蓝-紫</t>
+    <t>紫</t>
   </si>
   <si>
     <t>紫-金</t>
   </si>
   <si>
-    <t>金以上</t>
+    <t>金-红</t>
+  </si>
+  <si>
+    <t>红以上</t>
   </si>
   <si>
     <t>id</t>
@@ -79,13 +79,13 @@
     <t>two</t>
   </si>
   <si>
-    <t>r_2</t>
-  </si>
-  <si>
-    <t>r_3</t>
-  </si>
-  <si>
     <t>r_4</t>
+  </si>
+  <si>
+    <t>r_5</t>
+  </si>
+  <si>
+    <t>r_7</t>
   </si>
   <si>
     <t>攻击力(基础)</t>
@@ -2317,16 +2317,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{4B992DFB-09D9-4ACB-A7C1-B40DBE36FBD1}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{F5F2A484-04FD-4FE6-996E-D789120496D7}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{65023F4B-75A9-4678-9201-E132D5687A0F}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1A507D43-0EA7-43BB-83D6-5669D0C5F640}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0FBC1F89-EB37-4386-B8EE-A4B8C5733E52}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{EF0CBA4C-4616-4ED0-88AD-A3C0DD1C1CD4}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -2335,7 +2335,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{D0A99947-AC4A-4897-97CA-D3942834A3AA}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{21AEB59E-A174-4855-A095-1F23184D96D1}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2347,7 +2347,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="13"/>
       <tableStyleElement type="lastTotalCell" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{D870391F-75B5-4ACA-94BC-0BA32455E468}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{8B8B2F9E-2508-4800-B0A0-5EB99B43F8B3}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -2668,7 +2668,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+      <selection pane="topRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2718,15 +2718,12 @@
       <c r="J1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8"/>
       <c r="L1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="8"/>
       <c r="N1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="8"/>
       <c r="P1" s="12" t="s">
         <v>10</v>
       </c>
@@ -3786,8 +3783,8 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 C1 D1 E1 B2 E2 C2:C18 C19:C1048576 D2:D18 D19:D1048576 E3:E17 E18:E28 E29:E1048576 F4:F18"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B18 B19:B1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:E1 B2 F4:F18 C2:E1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
       <formula1>rune_attr_config_atf!$B:$B</formula1>
     </dataValidation>
   </dataValidations>

--- a/excels/config/game/rune/rune_attr_config.xlsx
+++ b/excels/config/game/rune/rune_attr_config.xlsx
@@ -106,91 +106,91 @@
     <t>50</t>
   </si>
   <si>
+    <t>%移动速度(基础百分比)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>生命恢复(基础单位秒)</t>
+  </si>
+  <si>
+    <t>蓝量回复(基础单位秒)</t>
+  </si>
+  <si>
+    <t>技能急速(基础)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>%闪避(基础)</t>
+  </si>
+  <si>
+    <t>%经验值获取(基础)</t>
+  </si>
+  <si>
+    <t>%灵魂获取(基础)</t>
+  </si>
+  <si>
+    <t>%暴击概率(基础)</t>
+  </si>
+  <si>
+    <t>%暴击伤害(基础)</t>
+  </si>
+  <si>
+    <t>%伤害加成(基础)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>%元素伤害(基础)</t>
+  </si>
+  <si>
+    <t>%元素穿透(基础)</t>
+  </si>
+  <si>
+    <t>%伤害减免(基础)</t>
+  </si>
+  <si>
+    <t>防御力(基础)</t>
+  </si>
+  <si>
+    <t>激活索引</t>
+  </si>
+  <si>
+    <t>属性中文</t>
+  </si>
+  <si>
+    <t>属性名</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>attr_id</t>
+  </si>
+  <si>
+    <t>AttackDamage</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>%攻击力(基础百分比)</t>
+  </si>
+  <si>
+    <t>BonusPercent</t>
+  </si>
+  <si>
+    <t>PhyicalArmor</t>
+  </si>
+  <si>
+    <t>MaxHealth</t>
+  </si>
+  <si>
     <t>攻击速度(基础)</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>%移动速度(基础百分比)</t>
-  </si>
-  <si>
-    <t>生命恢复(基础单位秒)</t>
-  </si>
-  <si>
-    <t>蓝量回复(基础单位秒)</t>
-  </si>
-  <si>
-    <t>技能急速(基础)</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>%闪避(基础)</t>
-  </si>
-  <si>
-    <t>%经验值获取(基础)</t>
-  </si>
-  <si>
-    <t>%灵魂获取(基础)</t>
-  </si>
-  <si>
-    <t>%暴击概率(基础)</t>
-  </si>
-  <si>
-    <t>%暴击伤害(基础)</t>
-  </si>
-  <si>
-    <t>%伤害加成(基础)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>%元素伤害(基础)</t>
-  </si>
-  <si>
-    <t>%元素穿透(基础)</t>
-  </si>
-  <si>
-    <t>%伤害减免(基础)</t>
-  </si>
-  <si>
-    <t>防御力(基础)</t>
-  </si>
-  <si>
-    <t>激活索引</t>
-  </si>
-  <si>
-    <t>属性中文</t>
-  </si>
-  <si>
-    <t>属性名</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>attr_id</t>
-  </si>
-  <si>
-    <t>AttackDamage</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>%攻击力(基础百分比)</t>
-  </si>
-  <si>
-    <t>BonusPercent</t>
-  </si>
-  <si>
-    <t>PhyicalArmor</t>
-  </si>
-  <si>
-    <t>MaxHealth</t>
   </si>
   <si>
     <t>AttackSpeed</t>
@@ -2317,16 +2317,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{F5F2A484-04FD-4FE6-996E-D789120496D7}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{5D3D5B65-1B23-422A-8B76-BC8C62F5FB30}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1A507D43-0EA7-43BB-83D6-5669D0C5F640}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8A5D3994-229F-4819-9F63-DF2A1015F716}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{EF0CBA4C-4616-4ED0-88AD-A3C0DD1C1CD4}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{BCA8BD8B-BA31-4DB0-9325-092A34920854}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -2335,7 +2335,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{21AEB59E-A174-4855-A095-1F23184D96D1}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B9DF6818-72DD-4DA3-90CD-695EC037537E}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2347,7 +2347,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="13"/>
       <tableStyleElement type="lastTotalCell" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{8B8B2F9E-2508-4800-B0A0-5EB99B43F8B3}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{EEBD6FE4-F0F8-464A-A828-CD052C6F7749}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -2668,7 +2668,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P2" sqref="P2"/>
+      <selection pane="topRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="41">
         <v>0</v>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="O3" s="8">
         <f>ROUND(D3*N3,I3)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P3" s="12">
         <v>1</v>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="41">
         <v>0</v>
@@ -2886,8 +2886,8 @@
       <c r="F5" s="29"/>
       <c r="G5" s="31" t="str">
         <f>IF(ISTEXT(B5),VLOOKUP(B5,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B5,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E5&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>AttackSpeed {
-"Base" "5-25"
+        <v>MoveSpeed {
+"BasePercent" "5-25"
  }</v>
       </c>
       <c r="H5" s="32"/>
@@ -2924,7 +2924,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>19</v>
@@ -2977,7 +2977,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>19</v>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="41">
         <v>0</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="O7" s="8">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P7" s="12">
         <v>1</v>
@@ -3030,7 +3030,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>19</v>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="41">
         <v>0</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="O8" s="8">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P8" s="12">
         <v>1</v>
@@ -3083,13 +3083,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="24" t="str">
         <f t="shared" si="0"/>
@@ -3103,7 +3103,9 @@
  }</v>
       </c>
       <c r="H9" s="32"/>
-      <c r="I9" s="40"/>
+      <c r="I9" s="40">
+        <v>0</v>
+      </c>
       <c r="J9" s="41">
         <v>0</v>
       </c>
@@ -3134,7 +3136,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>19</v>
@@ -3154,7 +3156,9 @@
  }</v>
       </c>
       <c r="H10" s="32"/>
-      <c r="I10" s="40"/>
+      <c r="I10" s="40">
+        <v>2</v>
+      </c>
       <c r="J10" s="41">
         <v>0</v>
       </c>
@@ -3174,7 +3178,7 @@
       </c>
       <c r="O10" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P10" s="12">
         <v>1</v>
@@ -3185,7 +3189,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>19</v>
@@ -3205,7 +3209,9 @@
  }</v>
       </c>
       <c r="H11" s="32"/>
-      <c r="I11" s="40"/>
+      <c r="I11" s="40">
+        <v>2</v>
+      </c>
       <c r="J11" s="41">
         <v>0</v>
       </c>
@@ -3225,7 +3231,7 @@
       </c>
       <c r="O11" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P11" s="12">
         <v>1</v>
@@ -3236,7 +3242,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>22</v>
@@ -3256,6 +3262,9 @@
  }</v>
       </c>
       <c r="H12" s="33"/>
+      <c r="I12" s="9">
+        <v>2</v>
+      </c>
       <c r="J12" s="41">
         <v>0</v>
       </c>
@@ -3286,7 +3295,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>19</v>
@@ -3306,7 +3315,9 @@
  }</v>
       </c>
       <c r="H13" s="32"/>
-      <c r="I13" s="40"/>
+      <c r="I13" s="40">
+        <v>2</v>
+      </c>
       <c r="J13" s="41">
         <v>0</v>
       </c>
@@ -3326,7 +3337,7 @@
       </c>
       <c r="O13" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P13" s="12">
         <v>1</v>
@@ -3337,7 +3348,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>20</v>
@@ -3357,7 +3368,9 @@
  }</v>
       </c>
       <c r="H14" s="32"/>
-      <c r="I14" s="40"/>
+      <c r="I14" s="40">
+        <v>2</v>
+      </c>
       <c r="J14" s="41">
         <v>0</v>
       </c>
@@ -3377,7 +3390,7 @@
       </c>
       <c r="O14" s="8">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="P14" s="12">
         <v>1</v>
@@ -3388,10 +3401,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>37</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>22</v>
@@ -3408,7 +3421,9 @@
  }</v>
       </c>
       <c r="H15" s="32"/>
-      <c r="I15" s="40"/>
+      <c r="I15" s="40">
+        <v>2</v>
+      </c>
       <c r="J15" s="41">
         <v>0</v>
       </c>
@@ -3439,7 +3454,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>19</v>
@@ -3459,7 +3474,9 @@
  }</v>
       </c>
       <c r="H16" s="32"/>
-      <c r="I16" s="40"/>
+      <c r="I16" s="40">
+        <v>2</v>
+      </c>
       <c r="J16" s="41">
         <v>0</v>
       </c>
@@ -3479,7 +3496,7 @@
       </c>
       <c r="O16" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P16" s="12">
         <v>1</v>
@@ -3490,7 +3507,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>19</v>
@@ -3510,7 +3527,9 @@
  }</v>
       </c>
       <c r="H17" s="32"/>
-      <c r="I17" s="40"/>
+      <c r="I17" s="40">
+        <v>2</v>
+      </c>
       <c r="J17" s="41">
         <v>0</v>
       </c>
@@ -3530,7 +3549,7 @@
       </c>
       <c r="O17" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P17" s="12">
         <v>1</v>
@@ -3541,10 +3560,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>22</v>
@@ -3561,7 +3580,9 @@
  }</v>
       </c>
       <c r="H18" s="32"/>
-      <c r="I18" s="40"/>
+      <c r="I18" s="40">
+        <v>2</v>
+      </c>
       <c r="J18" s="41">
         <v>0</v>
       </c>
@@ -3592,7 +3613,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>19</v>
@@ -3612,6 +3633,9 @@
  }</v>
       </c>
       <c r="H19" s="32"/>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
       <c r="J19" s="41">
         <v>0</v>
       </c>
@@ -3812,21 +3836,21 @@
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3840,10 +3864,10 @@
         <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" ht="51.5" customHeight="1" spans="1:4">
@@ -3851,13 +3875,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:4">
@@ -3865,13 +3889,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" ht="51.5" customHeight="1" spans="1:4">
@@ -3882,10 +3906,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" ht="51.5" customHeight="1" spans="1:4">
@@ -3893,13 +3917,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="51.5" customHeight="1" spans="1:4">
@@ -3921,7 +3945,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>56</v>
@@ -3935,13 +3959,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:4">
@@ -3949,13 +3973,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:4">
@@ -3963,13 +3987,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" ht="51.5" customHeight="1" spans="1:4">
@@ -3977,13 +4001,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" ht="51.5" customHeight="1" spans="1:4">
@@ -3991,13 +4015,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" ht="51.5" customHeight="1" spans="1:4">
@@ -4005,13 +4029,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="51.5" customHeight="1" spans="1:4">
@@ -4019,13 +4043,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="51.5" customHeight="1" spans="1:4">
@@ -4033,13 +4057,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:4">
@@ -4047,13 +4071,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:4">
@@ -4061,13 +4085,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" ht="51.5" customHeight="1" spans="1:4">
@@ -4075,13 +4099,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" ht="51.5" customHeight="1" spans="1:4">
@@ -4089,13 +4113,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" ht="51.5" customHeight="1" spans="1:4">
@@ -4106,7 +4130,7 @@
         <v>69</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>55</v>
@@ -4123,7 +4147,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -4137,7 +4161,7 @@
         <v>73</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -4151,7 +4175,7 @@
         <v>75</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -4165,7 +4189,7 @@
         <v>77</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" ht="51.5" customHeight="1" spans="1:4">
@@ -4179,7 +4203,7 @@
         <v>79</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" ht="51.5" customHeight="1" spans="1:4">
@@ -4193,7 +4217,7 @@
         <v>81</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="51.5" customHeight="1" spans="1:4">
@@ -4207,7 +4231,7 @@
         <v>83</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:4">
@@ -4221,7 +4245,7 @@
         <v>85</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/rune/rune_attr_config.xlsx
+++ b/excels/config/game/rune/rune_attr_config.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="rune_attr_config" sheetId="5" r:id="rId1"/>
-    <sheet name="rune_attr_config_atf" sheetId="4" r:id="rId2"/>
+    <sheet name="__rune_attr_config_atf" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
   <si>
     <t>符文属性索引</t>
   </si>
@@ -46,10 +46,19 @@
     <t>最大值</t>
   </si>
   <si>
-    <t>属性值1</t>
-  </si>
-  <si>
-    <t>羁绊属性id</t>
+    <t>是否禁用</t>
+  </si>
+  <si>
+    <t>属性名</t>
+  </si>
+  <si>
+    <t>属性类型</t>
+  </si>
+  <si>
+    <t>属性值</t>
+  </si>
+  <si>
+    <t>差值</t>
   </si>
   <si>
     <t>小数位数</t>
@@ -70,13 +79,19 @@
     <t>id</t>
   </si>
   <si>
-    <t>ListValues[{]</t>
-  </si>
-  <si>
-    <t>[}]</t>
-  </si>
-  <si>
-    <t>two</t>
+    <t>IsDisable</t>
+  </si>
+  <si>
+    <t>AttrName</t>
+  </si>
+  <si>
+    <t>AttrClass</t>
+  </si>
+  <si>
+    <t>AttrSection</t>
+  </si>
+  <si>
+    <t>Decimal</t>
   </si>
   <si>
     <t>r_4</t>
@@ -91,27 +106,12 @@
     <t>攻击力(基础)</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>生命值(基础)</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>%移动速度(基础百分比)</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>生命恢复(基础单位秒)</t>
   </si>
   <si>
@@ -121,9 +121,6 @@
     <t>技能急速(基础)</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>%闪避(基础)</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>%伤害加成(基础)</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>%元素伤害(基础)</t>
   </si>
   <si>
@@ -161,9 +155,6 @@
   </si>
   <si>
     <t>属性中文</t>
-  </si>
-  <si>
-    <t>属性名</t>
   </si>
   <si>
     <t>类型</t>
@@ -302,7 +293,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,13 +323,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FF08090C"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -346,11 +330,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -705,7 +684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -819,115 +798,8 @@
         <color theme="1"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.6"/>
+        <color theme="1" tint="0.66"/>
       </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.6"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.6"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.6"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.66"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.6"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.6"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.6"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.66"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.66"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="1" tint="0.66"/>
       </top>
@@ -938,44 +810,59 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.6"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color theme="1" tint="0.6"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.6"/>
+        <color theme="1" tint="0.66"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.6"/>
+        <color theme="1"/>
       </right>
-      <top style="thin">
-        <color theme="1" tint="0.6"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color theme="1"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
       </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,137 +984,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1267,94 +1154,88 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2317,16 +2198,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{5D3D5B65-1B23-422A-8B76-BC8C62F5FB30}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{70476CF5-B433-4A48-BF77-5C86CA7AF790}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8A5D3994-229F-4819-9F63-DF2A1015F716}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3F317CE3-7A15-4273-89B3-D30AC4552CFD}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{BCA8BD8B-BA31-4DB0-9325-092A34920854}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{F800F1C7-E00C-4E4E-8F37-C2D274DA0663}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -2335,7 +2216,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B9DF6818-72DD-4DA3-90CD-695EC037537E}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C5692204-B3D2-42B7-B2BF-26265595357A}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2347,7 +2228,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="13"/>
       <tableStyleElement type="lastTotalCell" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{EEBD6FE4-F0F8-464A-A828-CD052C6F7749}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{AD7F0090-92BE-4F05-BC03-B372C44442BE}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -2663,35 +2544,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.8416666666667" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="8" customWidth="1"/>
-    <col min="3" max="4" width="14.175" style="10" customWidth="1"/>
-    <col min="5" max="5" width="14.175" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.8416666666667" style="8" customWidth="1"/>
-    <col min="7" max="7" width="30.175" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.8416666666667" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="8" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="12" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="8" customWidth="1"/>
-    <col min="12" max="12" width="9.10833333333333" style="12" customWidth="1"/>
-    <col min="13" max="13" width="17.05" style="8" customWidth="1"/>
-    <col min="14" max="14" width="8.525" style="12" customWidth="1"/>
-    <col min="15" max="15" width="14.4083333333333" style="8" customWidth="1"/>
-    <col min="16" max="16" width="9.375" style="12"/>
-    <col min="17" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="19.0083333333333" style="8" customWidth="1"/>
+    <col min="2" max="2" width="43.0083333333333" style="8" customWidth="1"/>
+    <col min="3" max="5" width="13.0083333333333" style="10" customWidth="1"/>
+    <col min="6" max="6" width="29.0083333333333" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17.675" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.8416666666667" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.0083333333333" style="11" customWidth="1"/>
+    <col min="10" max="10" width="15.0083333333333" style="8" customWidth="1"/>
+    <col min="11" max="11" width="12.175" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.50833333333333" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.175" style="12" customWidth="1"/>
+    <col min="14" max="14" width="9.50833333333333" style="8" customWidth="1"/>
+    <col min="15" max="15" width="13.175" style="12" customWidth="1"/>
+    <col min="16" max="16" width="9.50833333333333" style="8" customWidth="1"/>
+    <col min="17" max="17" width="14.175" style="12" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="108.75" spans="1:16">
+    <row r="1" ht="100.25" customHeight="1" spans="1:17">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2704,1112 +2585,1354 @@
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="40" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="63.5" customHeight="1" spans="1:15">
-      <c r="A2" s="18" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="21">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="29"/>
+      <c r="N2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="30"/>
+      <c r="P2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="38"/>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" s="8" customFormat="1" ht="47" customHeight="1" spans="1:16">
-      <c r="A3" s="23">
+      <c r="B3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="24" t="str">
+      <c r="D3" s="20">
+        <v>5</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="F3" s="20" t="str">
+        <f>IF(ISTEXT(B3),VLOOKUP(B3,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>AttackDamage</v>
+      </c>
+      <c r="G3" s="20" t="str">
+        <f>IF(ISTEXT(B3),VLOOKUP(B3,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>Base</v>
+      </c>
+      <c r="H3" s="20" t="str">
         <f>C3&amp;"-"&amp;D3</f>
         <v>1-5</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="26" t="str">
-        <f>IF(ISTEXT(B3),VLOOKUP(B3,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B3,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>AttackDamage {
-"Base" "1-5"
- }</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="40">
+      <c r="I3" s="20">
+        <f>D3-C3</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="31">
         <v>0</v>
       </c>
-      <c r="J3" s="41">
+      <c r="K3" s="32">
         <v>0</v>
       </c>
-      <c r="K3" s="42">
-        <f>D3*J3+ROUND(D3*J3,I3)</f>
+      <c r="L3" s="31">
+        <f>C3+ROUND(I3*K3,J3)</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="N3" s="33">
+        <f>C3+ROUND(I3*M3,J3)</f>
+        <v>3</v>
+      </c>
+      <c r="O3" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="P3" s="33">
+        <f>C3+ROUND(I3*O3,J3)</f>
+        <v>4</v>
+      </c>
+      <c r="Q3" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="20">
+        <v>10</v>
+      </c>
+      <c r="D4" s="20">
+        <v>50</v>
+      </c>
+      <c r="E4" s="20">
         <v>0</v>
       </c>
-      <c r="L3" s="41">
+      <c r="F4" s="20" t="str">
+        <f>IF(ISTEXT(B4),VLOOKUP(B4,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>MaxHealth</v>
+      </c>
+      <c r="G4" s="20" t="str">
+        <f>IF(ISTEXT(B4),VLOOKUP(B4,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>Base</v>
+      </c>
+      <c r="H4" s="20" t="str">
+        <f t="shared" ref="H4:H18" si="0">C4&amp;"-"&amp;D4</f>
+        <v>10-50</v>
+      </c>
+      <c r="I4" s="20">
+        <f t="shared" ref="I4:I28" si="1">D4-C4</f>
+        <v>40</v>
+      </c>
+      <c r="J4" s="31">
+        <v>0</v>
+      </c>
+      <c r="K4" s="32">
+        <v>0</v>
+      </c>
+      <c r="L4" s="31">
+        <f t="shared" ref="L4:L19" si="2">C4+ROUND(I4*K4,J4)</f>
+        <v>10</v>
+      </c>
+      <c r="M4" s="32">
         <v>0.4</v>
       </c>
-      <c r="M3" s="8">
-        <f>ROUND(D3*L3,I3)</f>
-        <v>2</v>
-      </c>
-      <c r="N3" s="12">
+      <c r="N4" s="33">
+        <f t="shared" ref="N4:N19" si="3">C4+ROUND(I4*M4,J4)</f>
+        <v>26</v>
+      </c>
+      <c r="O4" s="34">
         <v>0.7</v>
       </c>
-      <c r="O3" s="8">
-        <f>ROUND(D3*N3,I3)</f>
-        <v>4</v>
-      </c>
-      <c r="P3" s="12">
+      <c r="P4" s="33">
+        <f t="shared" ref="P4:P19" si="4">C4+ROUND(I4*O4,J4)</f>
+        <v>38</v>
+      </c>
+      <c r="Q4" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:16">
-      <c r="A4" s="28">
-        <v>2</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="24" t="str">
-        <f t="shared" ref="E4:E18" si="0">C4&amp;"-"&amp;D4</f>
-        <v>10-50</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="31" t="str">
-        <f>IF(ISTEXT(B4),VLOOKUP(B4,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B4,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E4&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>MaxHealth {
-"Base" "10-50"
- }</v>
-      </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="40">
+    <row r="5" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="20">
+        <v>5</v>
+      </c>
+      <c r="D5" s="20">
+        <v>25</v>
+      </c>
+      <c r="E5" s="20">
         <v>0</v>
       </c>
-      <c r="J4" s="41">
-        <v>0</v>
-      </c>
-      <c r="K4" s="42">
-        <f t="shared" ref="K4:K19" si="1">D4*J4+ROUND(D4*J4,I4)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="M4" s="8">
-        <f t="shared" ref="M4:M19" si="2">ROUND(D4*L4,I4)</f>
-        <v>20</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="O4" s="8">
-        <f t="shared" ref="O4:O19" si="3">ROUND(D4*N4,I4)</f>
-        <v>35</v>
-      </c>
-      <c r="P4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="8" customFormat="1" ht="47" customHeight="1" spans="1:16">
-      <c r="A5" s="28">
-        <v>3</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="24" t="str">
+      <c r="F5" s="20" t="str">
+        <f>IF(ISTEXT(B5),VLOOKUP(B5,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>MoveSpeed</v>
+      </c>
+      <c r="G5" s="20" t="str">
+        <f>IF(ISTEXT(B5),VLOOKUP(B5,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>BasePercent</v>
+      </c>
+      <c r="H5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>5-25</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="31" t="str">
-        <f>IF(ISTEXT(B5),VLOOKUP(B5,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B5,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E5&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>MoveSpeed {
-"BasePercent" "5-25"
- }</v>
-      </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="40">
+      <c r="I5" s="20">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J5" s="31">
         <v>2</v>
       </c>
-      <c r="J5" s="41">
+      <c r="K5" s="32">
         <v>0</v>
       </c>
-      <c r="K5" s="42">
+      <c r="L5" s="31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="N5" s="33">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="O5" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="P5" s="33">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="Q5" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20">
+        <v>5</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20" t="str">
+        <f>IF(ISTEXT(B6),VLOOKUP(B6,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>MoveSpeed</v>
+      </c>
+      <c r="G6" s="20" t="str">
+        <f>IF(ISTEXT(B6),VLOOKUP(B6,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>BasePercent</v>
+      </c>
+      <c r="H6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="I6" s="20">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J6" s="31">
+        <v>2</v>
+      </c>
+      <c r="K6" s="32">
         <v>0</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L6" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="32">
         <v>0.4</v>
       </c>
-      <c r="M5" s="8">
+      <c r="N6" s="33">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="O6" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="P6" s="33">
+        <f t="shared" si="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="Q6" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20">
+        <v>5</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20" t="str">
+        <f>IF(ISTEXT(B7),VLOOKUP(B7,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>HealthRegen</v>
+      </c>
+      <c r="G7" s="20" t="str">
+        <f>IF(ISTEXT(B7),VLOOKUP(B7,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>Base</v>
+      </c>
+      <c r="H7" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0</v>
+      </c>
+      <c r="K7" s="32">
+        <v>0</v>
+      </c>
+      <c r="L7" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="N7" s="33">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O7" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="P7" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q7" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A8" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20">
+        <v>5</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20" t="str">
+        <f>IF(ISTEXT(B8),VLOOKUP(B8,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>ManaRegen</v>
+      </c>
+      <c r="G8" s="20" t="str">
+        <f>IF(ISTEXT(B8),VLOOKUP(B8,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>Base</v>
+      </c>
+      <c r="H8" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="31">
+        <v>0</v>
+      </c>
+      <c r="K8" s="32">
+        <v>0</v>
+      </c>
+      <c r="L8" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="N8" s="33">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O8" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="P8" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A9" s="19">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="20">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20">
+        <v>15</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20" t="str">
+        <f>IF(ISTEXT(B9),VLOOKUP(B9,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>AbilityHaste</v>
+      </c>
+      <c r="G9" s="20" t="str">
+        <f>IF(ISTEXT(B9),VLOOKUP(B9,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>Base</v>
+      </c>
+      <c r="H9" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>5-15</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0</v>
+      </c>
+      <c r="K9" s="32">
+        <v>0</v>
+      </c>
+      <c r="L9" s="31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M9" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="N9" s="33">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O9" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="P9" s="33">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <v>5</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20" t="str">
+        <f>IF(ISTEXT(B10),VLOOKUP(B10,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>EvasionProb</v>
+      </c>
+      <c r="G10" s="20" t="str">
+        <f>IF(ISTEXT(B10),VLOOKUP(B10,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>Base</v>
+      </c>
+      <c r="H10" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J10" s="31">
+        <v>2</v>
+      </c>
+      <c r="K10" s="32">
+        <v>0</v>
+      </c>
+      <c r="L10" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="33">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="O10" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="P10" s="33">
+        <f t="shared" si="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="Q10" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A11" s="19">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20">
+        <v>5</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="str">
+        <f>IF(ISTEXT(B11),VLOOKUP(B11,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>SingleExpeIncrease</v>
+      </c>
+      <c r="G11" s="20" t="str">
+        <f>IF(ISTEXT(B11),VLOOKUP(B11,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>Base</v>
+      </c>
+      <c r="H11" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="I11" s="20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="31">
+        <v>2</v>
+      </c>
+      <c r="K11" s="32">
+        <v>0</v>
+      </c>
+      <c r="L11" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="N11" s="33">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="O11" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="P11" s="33">
+        <f t="shared" si="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="9" customFormat="1" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A12" s="19">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="20">
+        <v>10</v>
+      </c>
+      <c r="D12" s="20">
+        <v>50</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20" t="str">
+        <f>IF(ISTEXT(B12),VLOOKUP(B12,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>SoulGetRate</v>
+      </c>
+      <c r="G12" s="20" t="str">
+        <f>IF(ISTEXT(B12),VLOOKUP(B12,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>Base</v>
+      </c>
+      <c r="H12" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>10-50</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J12" s="31">
+        <v>2</v>
+      </c>
+      <c r="K12" s="32">
+        <v>0</v>
+      </c>
+      <c r="L12" s="31">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N5" s="12">
+      <c r="M12" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="N12" s="33">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="O12" s="34">
         <v>0.7</v>
       </c>
-      <c r="O5" s="8">
-        <f t="shared" si="3"/>
-        <v>17.5</v>
-      </c>
-      <c r="P5" s="12">
+      <c r="P12" s="33">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="Q12" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:16">
-      <c r="A6" s="28">
-        <v>4</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="24" t="str">
+    <row r="13" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A13" s="19">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20">
+        <v>5</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20" t="str">
+        <f>IF(ISTEXT(B13),VLOOKUP(B13,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>CriticalChance</v>
+      </c>
+      <c r="G13" s="20" t="str">
+        <f>IF(ISTEXT(B13),VLOOKUP(B13,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>Base</v>
+      </c>
+      <c r="H13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>1-5</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="31" t="str">
-        <f>IF(ISTEXT(B6),VLOOKUP(B6,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B6,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E6&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>MoveSpeed {
-"BasePercent" "1-5"
- }</v>
-      </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="40">
+      <c r="I13" s="20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J13" s="31">
         <v>2</v>
       </c>
-      <c r="J6" s="41">
+      <c r="K13" s="32">
         <v>0</v>
       </c>
-      <c r="K6" s="42">
+      <c r="L13" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="N13" s="33">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="O13" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="P13" s="33">
+        <f t="shared" si="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="Q13" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A14" s="19">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="20">
+        <v>5</v>
+      </c>
+      <c r="D14" s="20">
+        <v>25</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20" t="str">
+        <f>IF(ISTEXT(B14),VLOOKUP(B14,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>CriticalDamage</v>
+      </c>
+      <c r="G14" s="20" t="str">
+        <f>IF(ISTEXT(B14),VLOOKUP(B14,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>Base</v>
+      </c>
+      <c r="H14" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>5-25</v>
+      </c>
+      <c r="I14" s="20">
         <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J14" s="31">
+        <v>2</v>
+      </c>
+      <c r="K14" s="32">
         <v>0</v>
       </c>
-      <c r="L6" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="M6" s="8">
+      <c r="L14" s="31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M14" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="N14" s="33">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O14" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="P14" s="33">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="Q14" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A15" s="19">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="20">
+        <v>2</v>
+      </c>
+      <c r="D15" s="20">
+        <v>10</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20" t="str">
+        <f>IF(ISTEXT(B15),VLOOKUP(B15,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>DamageBonusMul</v>
+      </c>
+      <c r="G15" s="20" t="str">
+        <f>IF(ISTEXT(B15),VLOOKUP(B15,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>Base</v>
+      </c>
+      <c r="H15" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>2-10</v>
+      </c>
+      <c r="I15" s="20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J15" s="31">
+        <v>2</v>
+      </c>
+      <c r="K15" s="32">
+        <v>0</v>
+      </c>
+      <c r="L15" s="31">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N6" s="12">
+      <c r="M15" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="N15" s="33">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="O15" s="34">
         <v>0.7</v>
       </c>
-      <c r="O6" s="8">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="P6" s="12">
+      <c r="P15" s="33">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
+      </c>
+      <c r="Q15" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" ht="63.5" customHeight="1" spans="1:16">
-      <c r="A7" s="28">
+    <row r="16" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A16" s="19">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="24" t="str">
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20" t="str">
+        <f>IF(ISTEXT(B16),VLOOKUP(B16,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>AllElementDamageBonus</v>
+      </c>
+      <c r="G16" s="20" t="str">
+        <f>IF(ISTEXT(B16),VLOOKUP(B16,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>Base</v>
+      </c>
+      <c r="H16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>1-5</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="31" t="str">
-        <f>IF(ISTEXT(B7),VLOOKUP(B7,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B7,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E7&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>HealthRegen {
-"Base" "1-5"
- }</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="40">
+      <c r="I16" s="20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J16" s="31">
+        <v>2</v>
+      </c>
+      <c r="K16" s="32">
         <v>0</v>
       </c>
-      <c r="J7" s="41">
+      <c r="L16" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="N16" s="33">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="O16" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="P16" s="33">
+        <f t="shared" si="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="Q16" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A17" s="19">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1</v>
+      </c>
+      <c r="D17" s="20">
+        <v>5</v>
+      </c>
+      <c r="E17" s="20">
         <v>0</v>
       </c>
-      <c r="K7" s="42">
+      <c r="F17" s="20" t="str">
+        <f>IF(ISTEXT(B17),VLOOKUP(B17,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>AllElementPent</v>
+      </c>
+      <c r="G17" s="20" t="str">
+        <f>IF(ISTEXT(B17),VLOOKUP(B17,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>Base</v>
+      </c>
+      <c r="H17" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5</v>
+      </c>
+      <c r="I17" s="20">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J17" s="31">
+        <v>2</v>
+      </c>
+      <c r="K17" s="32">
         <v>0</v>
       </c>
-      <c r="L7" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="M7" s="8">
+      <c r="L17" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="N17" s="33">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="O17" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="P17" s="33">
+        <f t="shared" si="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="Q17" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A18" s="19">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="20">
+        <v>2</v>
+      </c>
+      <c r="D18" s="20">
+        <v>10</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20" t="str">
+        <f>IF(ISTEXT(B18),VLOOKUP(B18,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>DmgReductionPct</v>
+      </c>
+      <c r="G18" s="20" t="str">
+        <f>IF(ISTEXT(B18),VLOOKUP(B18,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>Base</v>
+      </c>
+      <c r="H18" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>2-10</v>
+      </c>
+      <c r="I18" s="20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J18" s="31">
+        <v>2</v>
+      </c>
+      <c r="K18" s="32">
+        <v>0</v>
+      </c>
+      <c r="L18" s="31">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N7" s="12">
+      <c r="M18" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="N18" s="33">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="O18" s="34">
         <v>0.7</v>
       </c>
-      <c r="O7" s="8">
-        <f t="shared" si="3"/>
+      <c r="P18" s="33">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
+      </c>
+      <c r="Q18" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A19" s="19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="20">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20">
+        <v>5</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20" t="str">
+        <f>IF(ISTEXT(B19),VLOOKUP(B19,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v>PhyicalArmor</v>
+      </c>
+      <c r="G19" s="20" t="str">
+        <f>IF(ISTEXT(B19),VLOOKUP(B19,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v>Base</v>
+      </c>
+      <c r="H19" s="20" t="str">
+        <f t="shared" ref="H19:H28" si="5">C19&amp;"-"&amp;D19</f>
+        <v>1-5</v>
+      </c>
+      <c r="I19" s="20">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="8" customFormat="1" ht="47" customHeight="1" spans="1:16">
-      <c r="A8" s="28">
-        <v>6</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>1-5</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="31" t="str">
-        <f>IF(ISTEXT(B8),VLOOKUP(B8,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B8,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E8&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>ManaRegen {
-"Base" "1-5"
- }</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="40">
+      <c r="J19" s="33">
         <v>0</v>
       </c>
-      <c r="J8" s="41">
+      <c r="K19" s="32">
         <v>0</v>
       </c>
-      <c r="K8" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="M8" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N8" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="O8" s="8">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="P8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:16">
-      <c r="A9" s="28">
-        <v>7</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>5-15</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="31" t="str">
-        <f>IF(ISTEXT(B9),VLOOKUP(B9,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B9,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E9&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>AbilityHaste {
-"Base" "5-15"
- }</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="40">
-        <v>0</v>
-      </c>
-      <c r="J9" s="41">
-        <v>0</v>
-      </c>
-      <c r="K9" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="M9" s="8">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="O9" s="8">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="P9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:16">
-      <c r="A10" s="28">
-        <v>8</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>1-5</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="31" t="str">
-        <f>IF(ISTEXT(B10),VLOOKUP(B10,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B10,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E10&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>EvasionProb {
-"Base" "1-5"
- }</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="40">
-        <v>2</v>
-      </c>
-      <c r="J10" s="41">
-        <v>0</v>
-      </c>
-      <c r="K10" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="M10" s="8">
+      <c r="L19" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N10" s="12">
+      <c r="M19" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="N19" s="33">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O19" s="34">
         <v>0.7</v>
       </c>
-      <c r="O10" s="8">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="P10" s="12">
+      <c r="P19" s="33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q19" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" ht="47" customHeight="1" spans="1:16">
-      <c r="A11" s="28">
-        <v>9</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>1-5</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="31" t="str">
-        <f>IF(ISTEXT(B11),VLOOKUP(B11,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B11,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E11&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>SingleExpeIncrease {
-"Base" "1-5"
- }</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="40">
-        <v>2</v>
-      </c>
-      <c r="J11" s="41">
-        <v>0</v>
-      </c>
-      <c r="K11" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="M11" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="O11" s="8">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="P11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" s="9" customFormat="1" ht="47" customHeight="1" spans="1:16">
-      <c r="A12" s="28">
-        <v>10</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>10-50</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="31" t="str">
-        <f>IF(ISTEXT(B12),VLOOKUP(B12,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B12,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E12&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>SoulGetRate {
-"Base" "10-50"
- }</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="9">
-        <v>2</v>
-      </c>
-      <c r="J12" s="41">
-        <v>0</v>
-      </c>
-      <c r="K12" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="M12" s="8">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="N12" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="O12" s="8">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="P12" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="47" customHeight="1" spans="1:16">
-      <c r="A13" s="28">
-        <v>11</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>1-5</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="31" t="str">
-        <f>IF(ISTEXT(B13),VLOOKUP(B13,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B13,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E13&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>CriticalChance {
-"Base" "1-5"
- }</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="40">
-        <v>2</v>
-      </c>
-      <c r="J13" s="41">
-        <v>0</v>
-      </c>
-      <c r="K13" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="M13" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="O13" s="8">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="P13" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="30.5" customHeight="1" spans="1:16">
-      <c r="A14" s="28">
-        <v>12</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>5-25</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="31" t="str">
-        <f>IF(ISTEXT(B14),VLOOKUP(B14,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B14,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E14&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>CriticalDamage {
-"Base" "5-25"
- }</v>
-      </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="40">
-        <v>2</v>
-      </c>
-      <c r="J14" s="41">
-        <v>0</v>
-      </c>
-      <c r="K14" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="M14" s="8">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N14" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="O14" s="8">
-        <f t="shared" si="3"/>
-        <v>17.5</v>
-      </c>
-      <c r="P14" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="47" customHeight="1" spans="1:16">
-      <c r="A15" s="28">
-        <v>13</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>2-10</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="31" t="str">
-        <f>IF(ISTEXT(B15),VLOOKUP(B15,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B15,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E15&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>DamageBonusMul {
-"Base" "2-10"
- }</v>
-      </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="40">
-        <v>2</v>
-      </c>
-      <c r="J15" s="41">
-        <v>0</v>
-      </c>
-      <c r="K15" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="M15" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="N15" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="O15" s="8">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="P15" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="47" customHeight="1" spans="1:16">
-      <c r="A16" s="28">
-        <v>14</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>1-5</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="31" t="str">
-        <f>IF(ISTEXT(B16),VLOOKUP(B16,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B16,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E16&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>AllElementDamageBonus {
-"Base" "1-5"
- }</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="40">
-        <v>2</v>
-      </c>
-      <c r="J16" s="41">
-        <v>0</v>
-      </c>
-      <c r="K16" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="M16" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N16" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="O16" s="8">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="P16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="47" customHeight="1" spans="1:16">
-      <c r="A17" s="28">
-        <v>15</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>1-5</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="31" t="str">
-        <f>IF(ISTEXT(B17),VLOOKUP(B17,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B17,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E17&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>AllElementPent {
-"Base" "1-5"
- }</v>
-      </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="40">
-        <v>2</v>
-      </c>
-      <c r="J17" s="41">
-        <v>0</v>
-      </c>
-      <c r="K17" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="M17" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="O17" s="8">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="P17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="30.5" customHeight="1" spans="1:16">
-      <c r="A18" s="28">
-        <v>16</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>2-10</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="31" t="str">
-        <f>IF(ISTEXT(B18),VLOOKUP(B18,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B18,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E18&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>DmgReductionPct {
-"Base" "2-10"
- }</v>
-      </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="40">
-        <v>2</v>
-      </c>
-      <c r="J18" s="41">
-        <v>0</v>
-      </c>
-      <c r="K18" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="M18" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="N18" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="O18" s="8">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="P18" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="30.5" customHeight="1" spans="1:16">
-      <c r="A19" s="28">
-        <v>17</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="24" t="str">
-        <f t="shared" ref="E19:E28" si="4">C19&amp;"-"&amp;D19</f>
-        <v>1-5</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="31" t="str">
-        <f>IF(ISTEXT(B19),VLOOKUP(B19,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B19,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E19&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v>PhyicalArmor {
-"Base" "1-5"
- }</v>
-      </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="41">
-        <v>0</v>
-      </c>
-      <c r="K19" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="M19" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="O19" s="8">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="P19" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="24" t="str">
-        <f t="shared" si="4"/>
+    <row r="20" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="20" t="str">
+        <f>IF(ISTEXT(B20),VLOOKUP(B20,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G20" s="20" t="str">
+        <f>IF(ISTEXT(B20),VLOOKUP(B20,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H20" s="20" t="str">
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="31" t="str">
-        <f>IF(ISTEXT(B20),VLOOKUP(B20,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B20,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E20&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="I20" s="20"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="39"/>
+    </row>
+    <row r="21" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="20" t="str">
+        <f>IF(ISTEXT(B21),VLOOKUP(B21,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="21" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="24" t="str">
-        <f t="shared" si="4"/>
+      <c r="G21" s="20" t="str">
+        <f>IF(ISTEXT(B21),VLOOKUP(B21,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H21" s="20" t="str">
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="31" t="str">
-        <f>IF(ISTEXT(B21),VLOOKUP(B21,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B21,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E21&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="I21" s="20"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="39"/>
+    </row>
+    <row r="22" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="20" t="str">
+        <f>IF(ISTEXT(B22),VLOOKUP(B22,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H21" s="32"/>
-    </row>
-    <row r="22" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="24" t="str">
-        <f t="shared" si="4"/>
+      <c r="G22" s="20" t="str">
+        <f>IF(ISTEXT(B22),VLOOKUP(B22,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H22" s="20" t="str">
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="31" t="str">
-        <f>IF(ISTEXT(B22),VLOOKUP(B22,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B22,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E22&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="I22" s="20"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="39"/>
+    </row>
+    <row r="23" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="20" t="str">
+        <f>IF(ISTEXT(B23),VLOOKUP(B23,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H22" s="32"/>
-    </row>
-    <row r="23" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="24" t="str">
-        <f t="shared" si="4"/>
+      <c r="G23" s="20" t="str">
+        <f>IF(ISTEXT(B23),VLOOKUP(B23,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H23" s="20" t="str">
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="31" t="str">
-        <f>IF(ISTEXT(B23),VLOOKUP(B23,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B23,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E23&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="I23" s="20"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="39"/>
+    </row>
+    <row r="24" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="20" t="str">
+        <f>IF(ISTEXT(B24),VLOOKUP(B24,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H23" s="32"/>
-    </row>
-    <row r="24" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="24" t="str">
-        <f t="shared" si="4"/>
+      <c r="G24" s="20" t="str">
+        <f>IF(ISTEXT(B24),VLOOKUP(B24,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H24" s="20" t="str">
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="31" t="str">
-        <f>IF(ISTEXT(B24),VLOOKUP(B24,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B24,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E24&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="I24" s="20"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="39"/>
+    </row>
+    <row r="25" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="20" t="str">
+        <f>IF(ISTEXT(B25),VLOOKUP(B25,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="24" t="str">
-        <f t="shared" si="4"/>
+      <c r="G25" s="20" t="str">
+        <f>IF(ISTEXT(B25),VLOOKUP(B25,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H25" s="20" t="str">
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="31" t="str">
-        <f>IF(ISTEXT(B25),VLOOKUP(B25,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B25,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E25&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="I25" s="20"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="39"/>
+    </row>
+    <row r="26" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="20" t="str">
+        <f>IF(ISTEXT(B26),VLOOKUP(B26,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H25" s="32"/>
-    </row>
-    <row r="26" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="24" t="str">
-        <f t="shared" si="4"/>
+      <c r="G26" s="20" t="str">
+        <f>IF(ISTEXT(B26),VLOOKUP(B26,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H26" s="20" t="str">
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="31" t="str">
-        <f>IF(ISTEXT(B26),VLOOKUP(B26,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B26,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E26&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="I26" s="20"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="39"/>
+    </row>
+    <row r="27" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="20" t="str">
+        <f>IF(ISTEXT(B27),VLOOKUP(B27,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H26" s="32"/>
-    </row>
-    <row r="27" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="24" t="str">
-        <f t="shared" si="4"/>
+      <c r="G27" s="20" t="str">
+        <f>IF(ISTEXT(B27),VLOOKUP(B27,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H27" s="20" t="str">
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="31" t="str">
-        <f>IF(ISTEXT(B27),VLOOKUP(B27,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B27,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E27&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
+      <c r="I27" s="20"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="39"/>
+    </row>
+    <row r="28" ht="30.5" customHeight="1" spans="1:17">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="23" t="str">
+        <f>IF(ISTEXT(B28),VLOOKUP(B28,__rune_attr_config_atf!B:D,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="24" t="str">
-        <f t="shared" si="4"/>
+      <c r="G28" s="23" t="str">
+        <f>IF(ISTEXT(B28),VLOOKUP(B28,__rune_attr_config_atf!B:D,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H28" s="23" t="str">
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39" t="str">
-        <f>IF(ISTEXT(B28),VLOOKUP(B28,rune_attr_config_atf!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(B28,rune_attr_config_atf!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;E28&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
-        <v/>
-      </c>
-      <c r="H28" s="32"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:E1 B2 F4:F18 C2:E1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:D1 E1 F1 G1 H1 I1 B2 E2 F2 G2 I2 E3:E19 E20:E1048576 F3:F28 F29:F1048576 G3:G28 G29:G1048576 H2:H1048576 I3:I28 I29:I1048576 C2:D1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
-      <formula1>rune_attr_config_atf!$B:$B</formula1>
+      <formula1>__rune_attr_config_atf!$B:$B</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3822,8 +3945,8 @@
   <sheetPr/>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3836,21 +3959,21 @@
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3861,13 +3984,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="51.5" customHeight="1" spans="1:4">
@@ -3875,13 +3998,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:4">
@@ -3889,13 +4012,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="51.5" customHeight="1" spans="1:4">
@@ -3903,13 +4026,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="51.5" customHeight="1" spans="1:4">
@@ -3917,13 +4040,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" ht="51.5" customHeight="1" spans="1:4">
@@ -3931,13 +4054,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" ht="51.5" customHeight="1" spans="1:4">
@@ -3945,13 +4068,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" ht="51.5" customHeight="1" spans="1:4">
@@ -3962,10 +4085,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:4">
@@ -3976,10 +4099,10 @@
         <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:4">
@@ -3990,10 +4113,10 @@
         <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" ht="51.5" customHeight="1" spans="1:4">
@@ -4001,13 +4124,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" ht="51.5" customHeight="1" spans="1:4">
@@ -4015,13 +4138,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="51.5" customHeight="1" spans="1:4">
@@ -4029,13 +4152,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="51.5" customHeight="1" spans="1:4">
@@ -4043,13 +4166,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="51.5" customHeight="1" spans="1:4">
@@ -4057,13 +4180,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:4">
@@ -4071,13 +4194,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:4">
@@ -4085,13 +4208,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" ht="51.5" customHeight="1" spans="1:4">
@@ -4099,13 +4222,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="51.5" customHeight="1" spans="1:4">
@@ -4113,13 +4236,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" ht="51.5" customHeight="1" spans="1:4">
@@ -4127,13 +4250,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -4141,13 +4264,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -4155,13 +4278,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -4169,13 +4292,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -4183,13 +4306,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" ht="51.5" customHeight="1" spans="1:4">
@@ -4197,13 +4320,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="51.5" customHeight="1" spans="1:4">
@@ -4211,13 +4334,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="51.5" customHeight="1" spans="1:4">
@@ -4225,13 +4348,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:4">
@@ -4239,13 +4362,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/rune/rune_attr_config.xlsx
+++ b/excels/config/game/rune/rune_attr_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="rune_attr_config" sheetId="5" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <t>r_5</t>
   </si>
   <si>
-    <t>r_7</t>
+    <t>r_6</t>
   </si>
   <si>
     <t>攻击力(基础)</t>
@@ -1114,7 +1114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1196,22 +1196,10 @@
     <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2198,16 +2186,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{70476CF5-B433-4A48-BF77-5C86CA7AF790}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B27B2663-8C73-4053-ACE0-DB9D2CC0FF91}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3F317CE3-7A15-4273-89B3-D30AC4552CFD}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{887BFE3A-A565-4405-97CA-B34D50220070}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{F800F1C7-E00C-4E4E-8F37-C2D274DA0663}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0B471E23-A068-475D-9CD7-C7DBCBF0F16B}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -2216,7 +2204,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C5692204-B3D2-42B7-B2BF-26265595357A}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C133013F-536D-4B17-8C07-6399206B6FB1}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2228,7 +2216,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="13"/>
       <tableStyleElement type="lastTotalCell" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{AD7F0090-92BE-4F05-BC03-B372C44442BE}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{9EE1DAB4-4C35-452D-B26B-6EEB9EA18D02}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -2547,9 +2535,9 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H8" sqref="H8"/>
+      <selection pane="topRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2606,16 +2594,16 @@
       <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27"/>
+      <c r="L1" s="25"/>
       <c r="M1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="27"/>
+      <c r="N1" s="25"/>
       <c r="O1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="37" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="33" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2639,22 +2627,22 @@
         <v>18</v>
       </c>
       <c r="I2" s="17"/>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="28" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="28" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="28" t="s">
+      <c r="O2" s="28"/>
+      <c r="P2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="38"/>
+      <c r="Q2" s="34"/>
     </row>
     <row r="3" s="8" customFormat="1" ht="30.5" customHeight="1" spans="1:17">
       <c r="A3" s="19">
@@ -2688,31 +2676,31 @@
         <f>D3-C3</f>
         <v>4</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="29">
         <v>0</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="30">
         <v>0</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="29">
         <f>C3+ROUND(I3*K3,J3)</f>
         <v>1</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="30">
         <v>0.4</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="29">
         <f>C3+ROUND(I3*M3,J3)</f>
         <v>3</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="30">
         <v>0.7</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="29">
         <f>C3+ROUND(I3*O3,J3)</f>
         <v>4</v>
       </c>
-      <c r="Q3" s="39">
+      <c r="Q3" s="35">
         <v>1</v>
       </c>
     </row>
@@ -2748,31 +2736,31 @@
         <f t="shared" ref="I4:I28" si="1">D4-C4</f>
         <v>40</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="29">
         <v>0</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="30">
         <v>0</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="29">
         <f t="shared" ref="L4:L19" si="2">C4+ROUND(I4*K4,J4)</f>
         <v>10</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="30">
         <v>0.4</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="29">
         <f t="shared" ref="N4:N19" si="3">C4+ROUND(I4*M4,J4)</f>
         <v>26</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="30">
         <v>0.7</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="29">
         <f t="shared" ref="P4:P19" si="4">C4+ROUND(I4*O4,J4)</f>
         <v>38</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="35">
         <v>1</v>
       </c>
     </row>
@@ -2808,31 +2796,31 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="29">
         <v>2</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="30">
         <v>0</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="29">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="30">
         <v>0.4</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="29">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="30">
         <v>0.7</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="29">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="Q5" s="39">
+      <c r="Q5" s="35">
         <v>1</v>
       </c>
     </row>
@@ -2868,31 +2856,31 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="29">
         <v>2</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="30">
         <v>0</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="30">
         <v>0.4</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="29">
         <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="30">
         <v>0.7</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="29">
         <f t="shared" si="4"/>
         <v>3.8</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="Q6" s="35">
         <v>1</v>
       </c>
     </row>
@@ -2928,31 +2916,31 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="29">
         <v>0</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="30">
         <v>0</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="30">
         <v>0.4</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="29">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="30">
         <v>0.7</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="29">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q7" s="35">
         <v>1</v>
       </c>
     </row>
@@ -2988,31 +2976,31 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="29">
         <v>0</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="30">
         <v>0</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="30">
         <v>0.4</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="29">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="30">
         <v>0.7</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="29">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3048,31 +3036,31 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="29">
         <v>0</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="30">
         <v>0</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="29">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="30">
         <v>0.4</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="29">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="30">
         <v>0.7</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="29">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3108,31 +3096,31 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="29">
         <v>2</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="30">
         <v>0</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="30">
         <v>0.2</v>
       </c>
-      <c r="N10" s="33">
+      <c r="N10" s="29">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="30">
         <v>0.7</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="29">
         <f t="shared" si="4"/>
         <v>3.8</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3168,31 +3156,31 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="29">
         <v>2</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="30">
         <v>0</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="30">
         <v>0.4</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="29">
         <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="30">
         <v>0.7</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="29">
         <f t="shared" si="4"/>
         <v>3.8</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3228,31 +3216,31 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="29">
         <v>2</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="30">
         <v>0</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="29">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="30">
         <v>0.4</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="29">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="30">
         <v>0.7</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="29">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3288,31 +3276,31 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="29">
         <v>2</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="30">
         <v>0</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="30">
         <v>0.2</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="29">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="30">
         <v>0.7</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="29">
         <f t="shared" si="4"/>
         <v>3.8</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3348,31 +3336,31 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="29">
         <v>2</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="30">
         <v>0</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="29">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="30">
         <v>0.2</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="29">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="30">
         <v>0.7</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="29">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3408,31 +3396,31 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="29">
         <v>2</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="30">
         <v>0</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="29">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="30">
         <v>0.4</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="29">
         <f t="shared" si="3"/>
         <v>5.2</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="30">
         <v>0.7</v>
       </c>
-      <c r="P15" s="33">
+      <c r="P15" s="29">
         <f t="shared" si="4"/>
         <v>7.6</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3468,31 +3456,31 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="29">
         <v>2</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="30">
         <v>0</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="30">
         <v>0.2</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="29">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="30">
         <v>0.7</v>
       </c>
-      <c r="P16" s="33">
+      <c r="P16" s="29">
         <f t="shared" si="4"/>
         <v>3.8</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3528,31 +3516,31 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="29">
         <v>2</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="30">
         <v>0</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="30">
         <v>0.2</v>
       </c>
-      <c r="N17" s="33">
+      <c r="N17" s="29">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="30">
         <v>0.7</v>
       </c>
-      <c r="P17" s="33">
+      <c r="P17" s="29">
         <f t="shared" si="4"/>
         <v>3.8</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3588,31 +3576,31 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="29">
         <v>2</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="30">
         <v>0</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="29">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="30">
         <v>0.4</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N18" s="29">
         <f t="shared" si="3"/>
         <v>5.2</v>
       </c>
-      <c r="O18" s="34">
+      <c r="O18" s="30">
         <v>0.7</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="29">
         <f t="shared" si="4"/>
         <v>7.6</v>
       </c>
-      <c r="Q18" s="39">
+      <c r="Q18" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3648,31 +3636,31 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="29">
         <v>0</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="30">
         <v>0</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="30">
         <v>0.4</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="29">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="30">
         <v>0.7</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="29">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="Q19" s="39">
+      <c r="Q19" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3695,14 +3683,14 @@
         <v>-</v>
       </c>
       <c r="I20" s="20"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="39"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="35"/>
     </row>
     <row r="21" ht="30.5" customHeight="1" spans="1:17">
       <c r="A21" s="19"/>
@@ -3723,14 +3711,14 @@
         <v>-</v>
       </c>
       <c r="I21" s="20"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="39"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="35"/>
     </row>
     <row r="22" ht="30.5" customHeight="1" spans="1:17">
       <c r="A22" s="19"/>
@@ -3751,14 +3739,14 @@
         <v>-</v>
       </c>
       <c r="I22" s="20"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="39"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="35"/>
     </row>
     <row r="23" ht="30.5" customHeight="1" spans="1:17">
       <c r="A23" s="19"/>
@@ -3779,14 +3767,14 @@
         <v>-</v>
       </c>
       <c r="I23" s="20"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="39"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="35"/>
     </row>
     <row r="24" ht="30.5" customHeight="1" spans="1:17">
       <c r="A24" s="19"/>
@@ -3807,14 +3795,14 @@
         <v>-</v>
       </c>
       <c r="I24" s="20"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="39"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="35"/>
     </row>
     <row r="25" ht="30.5" customHeight="1" spans="1:17">
       <c r="A25" s="19"/>
@@ -3835,14 +3823,14 @@
         <v>-</v>
       </c>
       <c r="I25" s="20"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="39"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="35"/>
     </row>
     <row r="26" ht="30.5" customHeight="1" spans="1:17">
       <c r="A26" s="19"/>
@@ -3863,14 +3851,14 @@
         <v>-</v>
       </c>
       <c r="I26" s="20"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="39"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="35"/>
     </row>
     <row r="27" ht="30.5" customHeight="1" spans="1:17">
       <c r="A27" s="19"/>
@@ -3891,14 +3879,14 @@
         <v>-</v>
       </c>
       <c r="I27" s="20"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="39"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="35"/>
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:17">
       <c r="A28" s="22"/>
@@ -3919,18 +3907,18 @@
         <v>-</v>
       </c>
       <c r="I28" s="23"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="40"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="36"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:D1 E1 F1 G1 H1 I1 B2 E2 F2 G2 I2 E3:E19 E20:E1048576 F3:F28 F29:F1048576 G3:G28 G29:G1048576 H2:H1048576 I3:I28 I29:I1048576 C2:D1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:I1 B2 E2:G2 C2:D1048576 E3:G1048576 H2:I1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
       <formula1>__rune_attr_config_atf!$B:$B</formula1>
     </dataValidation>
